--- a/PhancongcongviecVaGrant.xlsx
+++ b/PhancongcongviecVaGrant.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SU20\PRJ321\assignment\PRJ321_SE1403_Group02_WebsiteSellClothes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\PRJ321_SE1403_Group02_WebsiteSellClothes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{868CDB93-7EBB-4070-B138-C3002D8426F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA42901-383A-4F7D-8ECC-2684349C0AA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{A167E15E-400F-48C1-9CF1-14DD56016F9E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19620" windowHeight="11760" activeTab="1" xr2:uid="{A167E15E-400F-48C1-9CF1-14DD56016F9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Phân công công việc" sheetId="1" r:id="rId1"/>
     <sheet name="Sơ đồ Grant" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
   <si>
     <t>Nhiệm vụ</t>
   </si>
@@ -87,9 +86,6 @@
   </si>
   <si>
     <t xml:space="preserve">Các chức năng select </t>
-  </si>
-  <si>
-    <t>Các chức năng sort</t>
   </si>
   <si>
     <t xml:space="preserve">Quản lí </t>
@@ -376,9 +372,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Sơ đồ Grant'!$A$2:$A$14</c:f>
+              <c:f>'Sơ đồ Grant'!$A$2:$A$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Phân tích DB</c:v>
                 </c:pt>
@@ -404,15 +400,12 @@
                   <c:v>Các chức năng select </c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Các chức năng sort</c:v>
+                  <c:v>Doc - chapter 4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Doc - chapter 4</c:v>
+                  <c:v>PPT</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>PPT</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>Test và hoàn thành dự án</c:v>
                 </c:pt>
               </c:strCache>
@@ -420,10 +413,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sơ đồ Grant'!$B$2:$B$14</c:f>
+              <c:f>'Sơ đồ Grant'!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>43992</c:v>
                 </c:pt>
@@ -449,15 +442,12 @@
                   <c:v>44022</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44027</c:v>
+                  <c:v>44029</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44029</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44033</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>44036</c:v>
                 </c:pt>
               </c:numCache>
@@ -495,9 +485,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Sơ đồ Grant'!$A$2:$A$14</c:f>
+              <c:f>'Sơ đồ Grant'!$A$2:$A$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Phân tích DB</c:v>
                 </c:pt>
@@ -523,15 +513,12 @@
                   <c:v>Các chức năng select </c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Các chức năng sort</c:v>
+                  <c:v>Doc - chapter 4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Doc - chapter 4</c:v>
+                  <c:v>PPT</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>PPT</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>Test và hoàn thành dự án</c:v>
                 </c:pt>
               </c:strCache>
@@ -539,10 +526,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sơ đồ Grant'!$D$2:$D$14</c:f>
+              <c:f>'Sơ đồ Grant'!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>13</c:v>
                 </c:pt>
@@ -568,15 +555,12 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1318,7 +1302,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>231775</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1348,10 +1332,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1F43F770-BE12-481C-B6E1-2CF09DDCCE86}" name="Table2" displayName="Table2" ref="A1:D14" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A1:D14" xr:uid="{16188CE5-FE04-4A1F-8F58-EB457CB1F85C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D14">
-    <sortCondition ref="B1:B14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1F43F770-BE12-481C-B6E1-2CF09DDCCE86}" name="Table2" displayName="Table2" ref="A1:D13" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:D13" xr:uid="{16188CE5-FE04-4A1F-8F58-EB457CB1F85C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D13">
+    <sortCondition ref="B1:B13"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7483F445-A493-4480-B302-742D8B6855EC}" name="Nhiệm vụ" dataDxfId="3"/>
@@ -1666,17 +1650,17 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.1796875" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" customWidth="1"/>
-    <col min="6" max="6" width="11.36328125" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1687,13 +1671,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -1710,7 +1694,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1727,7 +1711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1744,7 +1728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1755,13 +1739,13 @@
         <v>44013</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1778,9 +1762,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="4">
         <v>44010</v>
@@ -1795,9 +1779,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="4">
         <v>44010</v>
@@ -1812,9 +1796,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="4">
         <v>44010</v>
@@ -1823,15 +1807,15 @@
         <v>44017</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="4">
         <v>44017</v>
@@ -1846,7 +1830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1863,9 +1847,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="5">
         <v>44022</v>
@@ -1880,9 +1864,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="5">
         <v>44022</v>
@@ -1897,9 +1881,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="5">
         <v>44022</v>
@@ -1914,9 +1898,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="4">
         <v>44027</v>
@@ -1931,9 +1915,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="4">
         <v>44027</v>
@@ -1948,9 +1932,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="4">
         <v>44027</v>
@@ -1965,7 +1949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
@@ -1982,7 +1966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
@@ -1999,7 +1983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
@@ -2016,19 +2000,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="1048576" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1048576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1048576">
         <f>COUNT(A21:A1048575)</f>
         <v>0</v>
@@ -2043,21 +2027,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FF774D-FDFC-4472-802D-B9D6B608B3AF}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.6328125" customWidth="1"/>
-    <col min="2" max="2" width="13.90625" customWidth="1"/>
-    <col min="3" max="3" width="17.08984375" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2071,7 +2055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -2085,7 +2069,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2099,7 +2083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2113,7 +2097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -2127,7 +2111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -2141,9 +2125,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="4">
         <v>44010</v>
@@ -2155,9 +2139,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="4">
         <v>44017</v>
@@ -2169,7 +2153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -2183,7 +2167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -2197,59 +2181,45 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="4">
-        <v>44027</v>
-      </c>
-      <c r="C11" s="4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
         <v>44029</v>
       </c>
-      <c r="D11" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C11" s="5">
+        <v>44032</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5">
-        <v>44029</v>
-      </c>
-      <c r="C12" s="5">
-        <v>44032</v>
-      </c>
-      <c r="D12" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="B12" s="4">
+        <v>44033</v>
+      </c>
+      <c r="C12" s="4">
+        <v>44036</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="B13" s="4">
-        <v>44033</v>
+        <v>44036</v>
       </c>
       <c r="C13" s="4">
-        <v>44036</v>
+        <v>44037</v>
       </c>
       <c r="D13" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4">
-        <v>44036</v>
-      </c>
-      <c r="C14" s="4">
-        <v>44037</v>
-      </c>
-      <c r="D14" s="2">
         <v>2</v>
       </c>
     </row>

--- a/PhancongcongviecVaGrant.xlsx
+++ b/PhancongcongviecVaGrant.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\PRJ321_SE1403_Group02_WebsiteSellClothes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SU20\PRJ321\assignment\PRJ321_SE1403_Group02_WebsiteSellClothes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA42901-383A-4F7D-8ECC-2684349C0AA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA081BB-22A3-4B57-98A3-441811F1AE16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19620" windowHeight="11760" activeTab="1" xr2:uid="{A167E15E-400F-48C1-9CF1-14DD56016F9E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{A167E15E-400F-48C1-9CF1-14DD56016F9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Phân công công việc" sheetId="1" r:id="rId1"/>
     <sheet name="Sơ đồ Grant" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -85,12 +85,6 @@
     <t>Chức năng đăng kí, đăng nhập</t>
   </si>
   <si>
-    <t xml:space="preserve">Các chức năng select </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quản lí </t>
-  </si>
-  <si>
     <t>Doc  - chapter 2,3</t>
   </si>
   <si>
@@ -128,6 +122,12 @@
   </si>
   <si>
     <t>Các chức năng sort sản phẩm</t>
+  </si>
+  <si>
+    <t>Chức năng quản lí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Các chức năng select  </t>
   </si>
 </sst>
 </file>
@@ -391,13 +391,13 @@
                   <c:v>Chức năng đăng kí, đăng nhập</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Quản lí </c:v>
+                  <c:v>Chức năng quản lí</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Doc  - chapter 2,3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Các chức năng select </c:v>
+                  <c:v>Các chức năng select  </c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Doc - chapter 4</c:v>
@@ -504,13 +504,13 @@
                   <c:v>Chức năng đăng kí, đăng nhập</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Quản lí </c:v>
+                  <c:v>Chức năng quản lí</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Doc  - chapter 2,3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Các chức năng select </c:v>
+                  <c:v>Các chức năng select  </c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Doc - chapter 4</c:v>
@@ -1650,17 +1650,17 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1671,13 +1671,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1739,13 +1739,13 @@
         <v>44013</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1762,9 +1762,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="4">
         <v>44010</v>
@@ -1779,9 +1779,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="4">
         <v>44010</v>
@@ -1796,9 +1796,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" s="4">
         <v>44010</v>
@@ -1807,15 +1807,15 @@
         <v>44017</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="4">
         <v>44017</v>
@@ -1830,7 +1830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1847,9 +1847,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" s="5">
         <v>44022</v>
@@ -1864,9 +1864,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" s="5">
         <v>44022</v>
@@ -1881,9 +1881,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" s="5">
         <v>44022</v>
@@ -1898,9 +1898,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" s="4">
         <v>44027</v>
@@ -1915,9 +1915,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="4">
         <v>44027</v>
@@ -1932,9 +1932,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" s="4">
         <v>44027</v>
@@ -1949,7 +1949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
@@ -2000,19 +2000,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="1048576" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1048576" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1048576">
         <f>COUNT(A21:A1048575)</f>
         <v>0</v>
@@ -2030,18 +2030,18 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.54296875" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -2125,9 +2125,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B7" s="4">
         <v>44010</v>
@@ -2139,9 +2139,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="4">
         <v>44017</v>
@@ -2153,7 +2153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -2167,9 +2167,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5">
         <v>44022</v>
@@ -2181,7 +2181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
